--- a/data/datatypes.xlsx
+++ b/data/datatypes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedrohserrano/crowdED/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{CAC0E66C-B392-A44C-B571-5FEE16084CD2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{75B2FB3D-0FDA-E64B-9B3A-EE62479E6C37}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21320" yWindow="440" windowWidth="42680" windowHeight="26220" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17560" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="datatypes_MTurk" sheetId="1" r:id="rId1"/>
@@ -31045,8 +31045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T510"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4:J76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -44924,8 +44924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E342"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E342"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
